--- a/Métriques discriminantes/Tableau métriques/Evolutions métriques/evo_physical.xlsx
+++ b/Métriques discriminantes/Tableau métriques/Evolutions métriques/evo_physical.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,7 +709,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>sprint_distance_full_all</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>226.7496439956706</v>
+        <v>1531.661640779825</v>
       </c>
       <c r="D12" t="n">
-        <v>248.3871758058352</v>
+        <v>1617.09072264251</v>
       </c>
       <c r="E12" t="n">
-        <v>254.6964924804383</v>
+        <v>1721.497981666071</v>
       </c>
       <c r="F12" t="n">
-        <v>12.32498009359663</v>
+        <v>12.39414344734738</v>
       </c>
     </row>
     <row r="13">
@@ -738,22 +738,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>246.4777027410842</v>
+        <v>1538.642600924807</v>
       </c>
       <c r="D13" t="n">
-        <v>252.1082459683153</v>
+        <v>1598.663014577764</v>
       </c>
       <c r="E13" t="n">
-        <v>264.0564282068563</v>
+        <v>1657.854879603539</v>
       </c>
       <c r="F13" t="n">
-        <v>7.131973914994604</v>
+        <v>7.747886260726111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>hsr_count_full_otip</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>372.6377557685071</v>
+        <v>226.7496439956706</v>
       </c>
       <c r="D14" t="n">
-        <v>413.3315748917781</v>
+        <v>248.3871758058352</v>
       </c>
       <c r="E14" t="n">
-        <v>413.2212581680216</v>
+        <v>254.6964924804383</v>
       </c>
       <c r="F14" t="n">
-        <v>10.89087237438335</v>
+        <v>12.32498009359663</v>
       </c>
     </row>
     <row r="15">
@@ -782,22 +782,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>415.4714190587681</v>
+        <v>246.4777027410842</v>
       </c>
       <c r="D15" t="n">
-        <v>425.1069623861312</v>
+        <v>252.1082459683153</v>
       </c>
       <c r="E15" t="n">
-        <v>438.049735734262</v>
+        <v>264.0564282068563</v>
       </c>
       <c r="F15" t="n">
-        <v>5.434385047867811</v>
+        <v>7.131973914994604</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_otip</t>
+          <t>sprint_count_full_all</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -806,16 +806,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>46.80386024210457</v>
+        <v>88.43482101811608</v>
       </c>
       <c r="D16" t="n">
-        <v>51.72276474536343</v>
+        <v>94.68881990573875</v>
       </c>
       <c r="E16" t="n">
-        <v>51.76364638199163</v>
+        <v>98.25581575995547</v>
       </c>
       <c r="F16" t="n">
-        <v>10.59695955468489</v>
+        <v>11.10534812958748</v>
       </c>
     </row>
     <row r="17">
@@ -826,22 +826,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>50.48564294490428</v>
+        <v>89.84853943724046</v>
       </c>
       <c r="D17" t="n">
-        <v>52.32048826977314</v>
+        <v>93.38509242795836</v>
       </c>
       <c r="E17" t="n">
-        <v>54.91828312350329</v>
+        <v>96.39953746227864</v>
       </c>
       <c r="F17" t="n">
-        <v>8.780001442066254</v>
+        <v>7.291156947091031</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>medaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -850,16 +850,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38.66481436205228</v>
+        <v>372.6377557685071</v>
       </c>
       <c r="D18" t="n">
-        <v>39.34931314487949</v>
+        <v>413.3315748917781</v>
       </c>
       <c r="E18" t="n">
-        <v>42.59121228266082</v>
+        <v>413.2212581680216</v>
       </c>
       <c r="F18" t="n">
-        <v>10.15496384863576</v>
+        <v>10.89087237438335</v>
       </c>
     </row>
     <row r="19">
@@ -870,22 +870,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>36.26317787864867</v>
+        <v>415.4714190587681</v>
       </c>
       <c r="D19" t="n">
-        <v>37.94439031012171</v>
+        <v>425.1069623861312</v>
       </c>
       <c r="E19" t="n">
-        <v>39.26160621524579</v>
+        <v>438.049735734262</v>
       </c>
       <c r="F19" t="n">
-        <v>8.2685206096142</v>
+        <v>5.434385047867811</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
+          <t>highdecel_count_full_otip</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -894,16 +894,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>269.1145739129819</v>
+        <v>46.80386024210457</v>
       </c>
       <c r="D20" t="n">
-        <v>295.7264310572242</v>
+        <v>51.72276474536343</v>
       </c>
       <c r="E20" t="n">
-        <v>296.1021124432052</v>
+        <v>51.76364638199163</v>
       </c>
       <c r="F20" t="n">
-        <v>10.02827090997667</v>
+        <v>10.59695955468489</v>
       </c>
     </row>
     <row r="21">
@@ -914,22 +914,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>305.5568831931324</v>
+        <v>50.48564294490428</v>
       </c>
       <c r="D21" t="n">
-        <v>310.6382529620406</v>
+        <v>52.32048826977314</v>
       </c>
       <c r="E21" t="n">
-        <v>319.888315931185</v>
+        <v>54.91828312350329</v>
       </c>
       <c r="F21" t="n">
-        <v>4.690266698719466</v>
+        <v>8.780001442066254</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>sprint_count_full_tip</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -938,16 +938,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>757.7623611774042</v>
+        <v>38.66481436205228</v>
       </c>
       <c r="D22" t="n">
-        <v>781.8154777733826</v>
+        <v>39.34931314487949</v>
       </c>
       <c r="E22" t="n">
-        <v>833.0540919576094</v>
+        <v>42.59121228266082</v>
       </c>
       <c r="F22" t="n">
-        <v>9.936061044681303</v>
+        <v>10.15496384863576</v>
       </c>
     </row>
     <row r="23">
@@ -958,22 +958,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>707.0020769606567</v>
+        <v>36.26317787864867</v>
       </c>
       <c r="D23" t="n">
-        <v>742.2055356201979</v>
+        <v>37.94439031012171</v>
       </c>
       <c r="E23" t="n">
-        <v>767.7258913069584</v>
+        <v>39.26160621524579</v>
       </c>
       <c r="F23" t="n">
-        <v>8.588915977071565</v>
+        <v>8.2685206096142</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>meddecel_count_full_otip</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6401.619088002421</v>
+        <v>269.1145739129819</v>
       </c>
       <c r="D24" t="n">
-        <v>6853.733652790443</v>
+        <v>295.7264310572242</v>
       </c>
       <c r="E24" t="n">
-        <v>6908.794767104393</v>
+        <v>296.1021124432052</v>
       </c>
       <c r="F24" t="n">
-        <v>7.92261570283828</v>
+        <v>10.02827090997667</v>
       </c>
     </row>
     <row r="25">
@@ -1002,22 +1002,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7029.398236223848</v>
+        <v>305.5568831931324</v>
       </c>
       <c r="D25" t="n">
-        <v>7090.395590995666</v>
+        <v>310.6382529620406</v>
       </c>
       <c r="E25" t="n">
-        <v>7405.223471572644</v>
+        <v>319.888315931185</v>
       </c>
       <c r="F25" t="n">
-        <v>5.346478072790001</v>
+        <v>4.690266698719466</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>sprint_distance_full_tip</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33786.21131442336</v>
+        <v>757.7623611774042</v>
       </c>
       <c r="D26" t="n">
-        <v>35557.73874765011</v>
+        <v>781.8154777733826</v>
       </c>
       <c r="E26" t="n">
-        <v>36105.38327614157</v>
+        <v>833.0540919576094</v>
       </c>
       <c r="F26" t="n">
-        <v>6.864255776225947</v>
+        <v>9.936061044681303</v>
       </c>
     </row>
     <row r="27">
@@ -1046,22 +1046,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>37682.72032574103</v>
+        <v>707.0020769606567</v>
       </c>
       <c r="D27" t="n">
-        <v>37875.22498564087</v>
+        <v>742.2055356201979</v>
       </c>
       <c r="E27" t="n">
-        <v>38516.95176059572</v>
+        <v>767.7258913069584</v>
       </c>
       <c r="F27" t="n">
-        <v>2.213830179040507</v>
+        <v>8.588915977071565</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hi_distance_full_all</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3000.154345636548</v>
+        <v>6684.369914484892</v>
       </c>
       <c r="D28" t="n">
-        <v>2983.627093050226</v>
+        <v>6982.550369179889</v>
       </c>
       <c r="E28" t="n">
-        <v>3201.78844172178</v>
+        <v>7327.456122698981</v>
       </c>
       <c r="F28" t="n">
-        <v>6.720790761265005</v>
+        <v>9.62074535732283</v>
       </c>
     </row>
     <row r="29">
@@ -1090,22 +1090,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2813.741395752375</v>
+        <v>6733.326361891136</v>
       </c>
       <c r="D29" t="n">
-        <v>2906.84415604861</v>
+        <v>6910.531284109713</v>
       </c>
       <c r="E29" t="n">
-        <v>2943.20713499472</v>
+        <v>7153.485638910261</v>
       </c>
       <c r="F29" t="n">
-        <v>4.601195384827677</v>
+        <v>6.239995723319102</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>hsr_distance_full_all</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1114,16 +1114,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>250.8776109816052</v>
+        <v>5152.708273705066</v>
       </c>
       <c r="D30" t="n">
-        <v>248.734890513981</v>
+        <v>5365.459646537379</v>
       </c>
       <c r="E30" t="n">
-        <v>265.7118812988473</v>
+        <v>5605.958141032909</v>
       </c>
       <c r="F30" t="n">
-        <v>5.91295104381787</v>
+        <v>8.796342491206724</v>
       </c>
     </row>
     <row r="31">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>233.8312955270938</v>
+        <v>5194.68376096633</v>
       </c>
       <c r="D31" t="n">
-        <v>242.7086526873697</v>
+        <v>5311.868269531948</v>
       </c>
       <c r="E31" t="n">
-        <v>246.6854268767276</v>
+        <v>5495.630759306719</v>
       </c>
       <c r="F31" t="n">
-        <v>5.497181769727817</v>
+        <v>5.793365143837103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hi_count_full_all</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1158,16 +1158,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2242.391984459144</v>
+        <v>586.4490446983772</v>
       </c>
       <c r="D32" t="n">
-        <v>2201.811615276843</v>
+        <v>611.008665694976</v>
       </c>
       <c r="E32" t="n">
-        <v>2368.73434976417</v>
+        <v>633.5504610094033</v>
       </c>
       <c r="F32" t="n">
-        <v>5.63426761157901</v>
+        <v>8.031629812825658</v>
       </c>
     </row>
     <row r="33">
@@ -1178,22 +1178,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2106.739318791719</v>
+        <v>589.789154483561</v>
       </c>
       <c r="D33" t="n">
-        <v>2164.638620428413</v>
+        <v>606.0813354666415</v>
       </c>
       <c r="E33" t="n">
-        <v>2175.481243687761</v>
+        <v>624.2708347621927</v>
       </c>
       <c r="F33" t="n">
-        <v>3.262953526469854</v>
+        <v>5.84644190495925</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>running_distance_full_otip</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1202,16 +1202,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>212.2127966195529</v>
+        <v>6401.619088002421</v>
       </c>
       <c r="D34" t="n">
-        <v>209.3855773691014</v>
+        <v>6853.733652790443</v>
       </c>
       <c r="E34" t="n">
-        <v>223.1206690161865</v>
+        <v>6908.794767104393</v>
       </c>
       <c r="F34" t="n">
-        <v>5.140063450645163</v>
+        <v>7.92261570283828</v>
       </c>
     </row>
     <row r="35">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>197.5681176484451</v>
+        <v>7029.398236223848</v>
       </c>
       <c r="D35" t="n">
-        <v>204.764262377248</v>
+        <v>7090.395590995666</v>
       </c>
       <c r="E35" t="n">
-        <v>207.4238206614818</v>
+        <v>7405.223471572644</v>
       </c>
       <c r="F35" t="n">
-        <v>4.988508839555808</v>
+        <v>5.346478072790001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>hsr_count_full_all</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>22.69628049283338</v>
+        <v>498.0142236802611</v>
       </c>
       <c r="D36" t="n">
-        <v>21.58080066424091</v>
+        <v>516.3198457892372</v>
       </c>
       <c r="E36" t="n">
-        <v>21.64457394870383</v>
+        <v>535.294645249448</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.633827751915754</v>
+        <v>7.485814620652663</v>
       </c>
     </row>
     <row r="37">
@@ -1266,22 +1266,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>19.59184374391782</v>
+        <v>499.9406150463206</v>
       </c>
       <c r="D37" t="n">
-        <v>20.58435855497999</v>
+        <v>512.6962430386831</v>
       </c>
       <c r="E37" t="n">
-        <v>19.89319085743011</v>
+        <v>527.8712972999141</v>
       </c>
       <c r="F37" t="n">
-        <v>1.538125341602118</v>
+        <v>5.586799994436468</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>total_distance_full_otip</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1854.429759905351</v>
+        <v>33786.21131442336</v>
       </c>
       <c r="D38" t="n">
-        <v>1921.369056708694</v>
+        <v>35557.73874765011</v>
       </c>
       <c r="E38" t="n">
-        <v>1932.535195823294</v>
+        <v>36105.38327614157</v>
       </c>
       <c r="F38" t="n">
-        <v>4.211830375388775</v>
+        <v>6.864255776225947</v>
       </c>
     </row>
     <row r="39">
@@ -1310,22 +1310,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1898.640765806154</v>
+        <v>37682.72032574103</v>
       </c>
       <c r="D39" t="n">
-        <v>1933.397142085327</v>
+        <v>37875.22498564087</v>
       </c>
       <c r="E39" t="n">
-        <v>1946.887517137761</v>
+        <v>38516.95176059572</v>
       </c>
       <c r="F39" t="n">
-        <v>2.541120584815937</v>
+        <v>2.213830179040507</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>hi_distance_full_tip</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -1334,16 +1334,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19.51677973009632</v>
+        <v>3000.154345636548</v>
       </c>
       <c r="D40" t="n">
-        <v>20.9885927830018</v>
+        <v>2983.627093050226</v>
       </c>
       <c r="E40" t="n">
-        <v>20.1742622769974</v>
+        <v>3201.78844172178</v>
       </c>
       <c r="F40" t="n">
-        <v>3.368806514156614</v>
+        <v>6.720790761265005</v>
       </c>
     </row>
     <row r="41">
@@ -1354,22 +1354,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>20.45124364034154</v>
+        <v>2813.741395752375</v>
       </c>
       <c r="D41" t="n">
-        <v>20.55151676233292</v>
+        <v>2906.84415604861</v>
       </c>
       <c r="E41" t="n">
-        <v>20.54419154862124</v>
+        <v>2943.20713499472</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4544853599824656</v>
+        <v>4.601195384827677</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>highdecel_count_full_all</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1378,16 +1378,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1759.309419383992</v>
+        <v>150.4994073400977</v>
       </c>
       <c r="D42" t="n">
-        <v>1807.588149029572</v>
+        <v>160.306822253797</v>
       </c>
       <c r="E42" t="n">
-        <v>1789.212073300521</v>
+        <v>160.5751873059479</v>
       </c>
       <c r="F42" t="n">
-        <v>1.699681340136286</v>
+        <v>6.694896773301592</v>
       </c>
     </row>
     <row r="43">
@@ -1398,22 +1398,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1785.157316325987</v>
+        <v>153.408990933275</v>
       </c>
       <c r="D43" t="n">
-        <v>1812.821493985028</v>
+        <v>157.7994530175797</v>
       </c>
       <c r="E43" t="n">
-        <v>1811.942326599979</v>
+        <v>162.4421052771102</v>
       </c>
       <c r="F43" t="n">
-        <v>1.50042856329985</v>
+        <v>5.88825615036092</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>hi_count_full_tip</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -1422,16 +1422,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>371.0251598776892</v>
+        <v>250.8776109816052</v>
       </c>
       <c r="D44" t="n">
-        <v>367.4935104648872</v>
+        <v>248.734890513981</v>
       </c>
       <c r="E44" t="n">
-        <v>377.0421632698668</v>
+        <v>265.7118812988473</v>
       </c>
       <c r="F44" t="n">
-        <v>1.621723818988764</v>
+        <v>5.91295104381787</v>
       </c>
     </row>
     <row r="45">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>337.3442341519182</v>
+        <v>233.8312955270938</v>
       </c>
       <c r="D45" t="n">
-        <v>355.7742733909068</v>
+        <v>242.7086526873697</v>
       </c>
       <c r="E45" t="n">
-        <v>358.8972196207185</v>
+        <v>246.6854268767276</v>
       </c>
       <c r="F45" t="n">
-        <v>6.389018482258763</v>
+        <v>5.497181769727817</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>hsr_distance_full_tip</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>39.54145178760992</v>
+        <v>2242.391984459144</v>
       </c>
       <c r="D46" t="n">
-        <v>40.32643280579968</v>
+        <v>2201.811615276843</v>
       </c>
       <c r="E46" t="n">
-        <v>40.17701143397706</v>
+        <v>2368.73434976417</v>
       </c>
       <c r="F46" t="n">
-        <v>1.607325016241034</v>
+        <v>5.63426761157901</v>
       </c>
     </row>
     <row r="47">
@@ -1486,22 +1486,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>36.57610884996854</v>
+        <v>2106.739318791719</v>
       </c>
       <c r="D47" t="n">
-        <v>37.81427744046337</v>
+        <v>2164.638620428413</v>
       </c>
       <c r="E47" t="n">
-        <v>38.7308422683323</v>
+        <v>2175.481243687761</v>
       </c>
       <c r="F47" t="n">
-        <v>5.891095269872085</v>
+        <v>3.262953526469854</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>hsr_count_full_tip</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
@@ -1510,16 +1510,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>267.4500914142426</v>
+        <v>212.2127966195529</v>
       </c>
       <c r="D48" t="n">
-        <v>260.9359912541216</v>
+        <v>209.3855773691014</v>
       </c>
       <c r="E48" t="n">
-        <v>265.7629103633116</v>
+        <v>223.1206690161865</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.6308395865596563</v>
+        <v>5.140063450645163</v>
       </c>
     </row>
     <row r="49">
@@ -1530,22 +1530,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>236.2798363565878</v>
+        <v>197.5681176484451</v>
       </c>
       <c r="D49" t="n">
-        <v>249.8672855776814</v>
+        <v>204.764262377248</v>
       </c>
       <c r="E49" t="n">
-        <v>251.367117096221</v>
+        <v>207.4238206614818</v>
       </c>
       <c r="F49" t="n">
-        <v>6.385344163208172</v>
+        <v>4.988508839555808</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>highaccel_count_full_tip</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
@@ -1554,16 +1554,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>37054.67228683398</v>
+        <v>22.69628049283338</v>
       </c>
       <c r="D50" t="n">
-        <v>35483.45315552852</v>
+        <v>21.58080066424091</v>
       </c>
       <c r="E50" t="n">
-        <v>37075.76012753663</v>
+        <v>21.64457394870383</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0569100720670506</v>
+        <v>-4.633827751915754</v>
       </c>
     </row>
     <row r="51">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>32940.96424181577</v>
+        <v>19.59184374391782</v>
       </c>
       <c r="D51" t="n">
-        <v>34213.0379415219</v>
+        <v>20.58435855497999</v>
       </c>
       <c r="E51" t="n">
-        <v>34152.02340188321</v>
+        <v>19.89319085743011</v>
       </c>
       <c r="F51" t="n">
-        <v>3.676453279197275</v>
+        <v>1.538125341602118</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>total_metersperminute_full_otip</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
@@ -1598,16 +1598,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5879.473802624165</v>
+        <v>1854.429759905351</v>
       </c>
       <c r="D52" t="n">
-        <v>5652.00052074328</v>
+        <v>1921.369056708694</v>
       </c>
       <c r="E52" t="n">
-        <v>5882.471214674826</v>
+        <v>1932.535195823294</v>
       </c>
       <c r="F52" t="n">
-        <v>0.05098095767215549</v>
+        <v>4.211830375388775</v>
       </c>
     </row>
     <row r="53">
@@ -1618,44 +1618,674 @@
         </is>
       </c>
       <c r="C53" t="n">
+        <v>1898.640765806154</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1933.397142085327</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1946.887517137761</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.541120584815937</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>medaccel_count_full_all</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1036.71014965292</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1083.150966276052</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1077.626446257453</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.946744094116577</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1054.171502221885</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1080.059280540208</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1092.392933515477</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3.625731791556859</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>running_distance_full_all</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>13841.85545268292</v>
+      </c>
+      <c r="D56" t="n">
+        <v>14140.68185935396</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14352.47920950798</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.688983450019275</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>13893.78291834626</v>
+      </c>
+      <c r="D57" t="n">
+        <v>14125.39137416124</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14539.58334423309</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4.648125205944265</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>highaccel_count_full_otip</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>19.51677973009632</v>
+      </c>
+      <c r="D58" t="n">
+        <v>20.9885927830018</v>
+      </c>
+      <c r="E58" t="n">
+        <v>20.1742622769974</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3.368806514156614</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>20.45124364034154</v>
+      </c>
+      <c r="D59" t="n">
+        <v>20.55151676233292</v>
+      </c>
+      <c r="E59" t="n">
+        <v>20.54419154862124</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.4544853599824656</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>psv99</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>358.3587389697205</v>
+      </c>
+      <c r="D60" t="n">
+        <v>372.0077376502733</v>
+      </c>
+      <c r="E60" t="n">
+        <v>369.8597497234899</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3.209356854763671</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>362.6029586435135</v>
+      </c>
+      <c r="D61" t="n">
+        <v>371.437118524194</v>
+      </c>
+      <c r="E61" t="n">
+        <v>366.6518251724366</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.116611553328148</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>total_metersperminute_full_all</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1467.915128687427</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1520.429141239384</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1508.853556473516</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.788882475970864</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1482.665020609129</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1522.9558650912</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1502.92781130579</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.366646573231778</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>meddecel_count_full_all</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>856.3854211848644</v>
+      </c>
+      <c r="D64" t="n">
+        <v>877.8905998513952</v>
+      </c>
+      <c r="E64" t="n">
+        <v>873.7165986570014</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.023759050937395</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>863.9768443859568</v>
+      </c>
+      <c r="D65" t="n">
+        <v>885.3020344406092</v>
+      </c>
+      <c r="E65" t="n">
+        <v>887.9670602879125</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.77671977644331</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>total_metersperminute_full_tip</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1759.309419383992</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1807.588149029572</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1789.212073300521</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.699681340136286</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1785.157316325987</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1812.821493985028</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1811.942326599979</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.50042856329985</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>medaccel_count_full_tip</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>371.0251598776892</v>
+      </c>
+      <c r="D68" t="n">
+        <v>367.4935104648872</v>
+      </c>
+      <c r="E68" t="n">
+        <v>377.0421632698668</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.621723818988764</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>337.3442341519182</v>
+      </c>
+      <c r="D69" t="n">
+        <v>355.7742733909068</v>
+      </c>
+      <c r="E69" t="n">
+        <v>358.8972196207185</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6.389018482258763</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>highdecel_count_full_tip</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>39.54145178760992</v>
+      </c>
+      <c r="D70" t="n">
+        <v>40.32643280579968</v>
+      </c>
+      <c r="E70" t="n">
+        <v>40.17701143397706</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.607325016241034</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>36.57610884996854</v>
+      </c>
+      <c r="D71" t="n">
+        <v>37.81427744046337</v>
+      </c>
+      <c r="E71" t="n">
+        <v>38.7308422683323</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5.891095269872085</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>highaccel_count_full_all</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>64.01852954116359</v>
+      </c>
+      <c r="D72" t="n">
+        <v>66.81213264300074</v>
+      </c>
+      <c r="E72" t="n">
+        <v>64.75345306845762</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.147985641909312</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>62.24959871793924</v>
+      </c>
+      <c r="D73" t="n">
+        <v>63.82263756260541</v>
+      </c>
+      <c r="E73" t="n">
+        <v>63.34831229146494</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.76501310234</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>total_distance_full_all</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>101600.5653035157</v>
+      </c>
+      <c r="D74" t="n">
+        <v>101948.4128754334</v>
+      </c>
+      <c r="E74" t="n">
+        <v>102334.395700219</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.7222699937851133</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>101949.6126464969</v>
+      </c>
+      <c r="D75" t="n">
+        <v>102387.4598188055</v>
+      </c>
+      <c r="E75" t="n">
+        <v>102705.4282087947</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.7413618773800991</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>meddecel_count_full_tip</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>267.4500914142426</v>
+      </c>
+      <c r="D76" t="n">
+        <v>260.9359912541216</v>
+      </c>
+      <c r="E76" t="n">
+        <v>265.7629103633116</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.6308395865596563</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>236.2798363565878</v>
+      </c>
+      <c r="D77" t="n">
+        <v>249.8672855776814</v>
+      </c>
+      <c r="E77" t="n">
+        <v>251.367117096221</v>
+      </c>
+      <c r="F77" t="n">
+        <v>6.385344163208172</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>total_distance_full_tip</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>37054.67228683398</v>
+      </c>
+      <c r="D78" t="n">
+        <v>35483.45315552852</v>
+      </c>
+      <c r="E78" t="n">
+        <v>37075.76012753663</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0569100720670506</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>32940.96424181577</v>
+      </c>
+      <c r="D79" t="n">
+        <v>34213.0379415219</v>
+      </c>
+      <c r="E79" t="n">
+        <v>34152.02340188321</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.676453279197275</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>running_distance_full_tip</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>5879.473802624165</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5652.00052074328</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5882.471214674826</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.05098095767215549</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
         <v>5282.933986834801</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D81" t="n">
         <v>5477.507365740687</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E81" t="n">
         <v>5563.321755814361</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F81" t="n">
         <v>5.307425186048017</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="40">
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A78:A79"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A54:A55"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A74:A75"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A76:A77"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A72:A73"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A30:A31"/>
   </mergeCells>
